--- a/openpyxl/SampleChart.xlsx
+++ b/openpyxl/SampleChart.xlsx
@@ -24,6 +24,8 @@
     <sheet name="Radar Charts " sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="stock Charts " sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Surface Charts " sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Axis Limits and Scale" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Adding a second axis" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3760,6 +3762,393 @@
         <minorTickMark val="none"/>
         <crossAx val="10"/>
       </serAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Full Axes</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Axis Limits and Scale'!$A$2:$A$22</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Axis Limits and Scale'!$B$2:$B$22</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>1/x</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Clipped Axes</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Axis Limits and Scale'!$A$2:$A$22</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Axis Limits and Scale'!$B$2:$B$22</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="11"/>
+          <min val="0"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="1.5"/>
+          <min val="0"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>1/x</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Survey results</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Adding a second axis'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Adding a second axis'!$B$1:$G$1</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Adding a second axis'!A2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Adding a second axis'!$B$2:$G$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="200"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Aliens</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+        <crosses val="max"/>
+      </valAx>
+      <valAx>
+        <axId val="200"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Humans</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
     </plotArea>
     <legend>
       <legendPos val="r"/>
@@ -4925,6 +5314,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -6640,13 +7105,263 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B1" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Aliens</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Humans</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6702,6 +7417,18 @@
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1/X</t>
+        </is>
       </c>
     </row>
   </sheetData>
